--- a/Operazioni, volume dei dati, accessi e ridondanze/Ridondanze.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Ridondanze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D621C62-BF2C-4C32-97DD-20511DB7D3C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562669EE-9D0C-4574-9143-180DD2238497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12645" yWindow="1155" windowWidth="15960" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="21">
   <si>
     <t>D6  Visualizzazione del numero di vaccinati per ogni città registrata</t>
   </si>
@@ -86,6 +86,30 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Residenza</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Vaccinazione</t>
+  </si>
+  <si>
+    <t>Riceve</t>
+  </si>
+  <si>
+    <t>Paziente</t>
+  </si>
+  <si>
+    <t>Risiede</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>300(pazienti vaccinati al giorno)*7=2100</t>
   </si>
 </sst>
 </file>
@@ -157,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -217,11 +241,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,10 +262,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,19 +283,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -534,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,20 +594,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -575,119 +619,233 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="I3" s="3" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="A5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="16">
+        <v>2100</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="15">
+        <v>100</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2100</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2100</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16">
+        <v>2100</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="16">
+        <v>100</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="I7" s="8" t="s">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="I8" s="8" t="s">
+      <c r="B12" s="5"/>
+      <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="J12" s="5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K14" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>8500</v>
+      </c>
+      <c r="B15" s="16">
+        <v>1</v>
+      </c>
+      <c r="C15" s="16">
+        <v>8500</v>
+      </c>
+      <c r="I15" s="16">
+        <v>100</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Operazioni, volume dei dati, accessi e ridondanze/Ridondanze.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Ridondanze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562669EE-9D0C-4574-9143-180DD2238497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468CA7E-BEA0-4BC0-A3C7-F4C0460A1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="2220" windowWidth="18120" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
     <t>A</t>
   </si>
   <si>
-    <t>300(pazienti vaccinati al giorno)*7=2100</t>
+    <t>16000*7=112000 pazienti vaccinati a settimana</t>
   </si>
 </sst>
 </file>
@@ -254,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -262,7 +262,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,6 +269,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,17 +293,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -581,7 +582,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,20 +595,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -619,223 +620,225 @@
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="I3" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="16">
-        <v>2100</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="8">
+        <v>16000</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="7">
         <v>100</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16">
-        <v>2100</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="8">
+        <v>16000</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="16">
-        <v>2100</v>
-      </c>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="8">
+        <v>16000</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16">
-        <v>2100</v>
-      </c>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="8">
+        <v>16000</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="8">
+        <v>16000</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4">
+        <v>80000</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4">
         <v>100</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="I12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="5">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>80000</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>80000</v>
+      </c>
+      <c r="I15" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
-        <v>8500</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="J15" s="8">
         <v>1</v>
       </c>
-      <c r="C15" s="16">
-        <v>8500</v>
-      </c>
-      <c r="I15" s="16">
+      <c r="K15" s="8">
         <v>100</v>
       </c>
-      <c r="J15" s="16">
-        <v>1</v>
-      </c>
-      <c r="K15" s="16">
-        <v>100</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -843,7 +846,7 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E8:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Operazioni, volume dei dati, accessi e ridondanze/Ridondanze.xlsx
+++ b/Operazioni, volume dei dati, accessi e ridondanze/Ridondanze.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eorli\OneDrive\Desktop\Università\Corsi\Basi di dati\progettoBasiDiDati\Operazioni, volume dei dati, accessi e ridondanze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0468CA7E-BEA0-4BC0-A3C7-F4C0460A1DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4A078A-8457-404A-9616-42F056F80178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="2220" windowWidth="18120" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14865" yWindow="3375" windowWidth="13995" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Concetto</t>
-  </si>
-  <si>
-    <t>Costrutti</t>
   </si>
   <si>
     <t>Accessi</t>
@@ -106,10 +103,13 @@
     <t>Risiede</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>16000*7=112000 pazienti vaccinati a settimana</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Costrutto</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="I3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
@@ -638,56 +638,56 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="8">
         <v>16000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="K5" s="7">
         <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>19</v>
@@ -696,7 +696,7 @@
         <v>16000</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -705,16 +705,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
         <v>16000</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>19</v>
@@ -732,10 +732,10 @@
         <v>16000</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -747,16 +747,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="C9" s="8">
         <v>16000</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -765,13 +765,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4">
         <v>80000</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="4">
         <v>100</v>
@@ -793,22 +793,22 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="I14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
